--- a/data/trans_dic/P38C-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P38C-Provincia-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_dic/P38C-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P38C-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,54%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,04%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,41%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,28%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,79%</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>64,03; 75,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>93,75; 98,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>70,06; 80,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>96,41; 99,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>69,23; 76,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>96,22; 98,88</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,67%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,85%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,07%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,27%</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>84,48; 90,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>69,84; 81,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>91,86; 95,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>80,11; 87,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>89,05; 92,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>76,74; 83,22</t>
         </is>
       </c>
     </row>
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,96%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,31%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,62%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,92%</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>85,36; 92,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>90,08; 96,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>89,19; 94,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>95,15; 98,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>88,68; 92,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>93,73; 97,39</t>
         </is>
       </c>
     </row>
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,85%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,69%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,82%</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>89,41; 94,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>79,26; 91,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>88,47; 94,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>76,2; 92,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>90,04; 93,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>81,57; 91,05</t>
         </is>
       </c>
     </row>
@@ -921,32 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,3%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,41%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,53%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,6%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,01%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,76%</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>70,93; 82,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>75,53; 86,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>84,29; 92,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>82,67; 91,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>78,82; 86,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>81,04; 88,1</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1001,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,54%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,44%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,35%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,06%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,45%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>75,46; 85,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>91,21; 97,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>83,14; 91,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>94,25; 98,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>80,66; 87,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>94,26; 97,87</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1081,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,1%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,66%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,53%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,37%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,95%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,11%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>60,02; 67,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>78,65; 86,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>70,13; 76,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>89,75; 95,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>66,38; 71,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>85,65; 90,95</t>
         </is>
       </c>
     </row>
@@ -1161,32 +1161,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,13%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,42%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,38%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,64%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,84%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,06%</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1199,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>86,25; 91,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>44,75; 62,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>92,6; 95,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>65,16; 71,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>90,44; 93,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>56,31; 66,36</t>
         </is>
       </c>
     </row>
@@ -1241,32 +1241,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,47%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,78%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,44%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,37%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,53%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,8%</t>
         </is>
       </c>
     </row>
@@ -1279,32 +1279,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>79,87; 82,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>74,67; 80,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>86,21; 88,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>84,75; 87,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>83,63; 85,42</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>80,85; 84,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P38C-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P38C-Provincia-trans_dic.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>96,96%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>98,41%</t>
+          <t>98,39%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>97,65%</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>93,75; 98,76</t>
+          <t>93,08; 98,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>96,41; 99,36</t>
+          <t>96,14; 99,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,22; 98,88</t>
+          <t>95,85; 98,83</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>75,85%</t>
+          <t>74,29%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>80,27%</t>
+          <t>79,33%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>69,84; 81,24</t>
+          <t>67,8; 80,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>80,11; 87,71</t>
+          <t>80,16; 87,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>76,74; 83,22</t>
+          <t>75,54; 82,41</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>93,96%</t>
+          <t>93,72%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>97,62%</t>
+          <t>97,6%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,92%</t>
+          <t>95,76%</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90,08; 96,63</t>
+          <t>89,53; 96,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>95,15; 98,93</t>
+          <t>95,07; 98,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>93,73; 97,39</t>
+          <t>93,44; 97,29</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>86,85%</t>
+          <t>86,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>88,56%</t>
+          <t>78,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>87,82%</t>
+          <t>81,62%</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,26; 91,43</t>
+          <t>77,48; 91,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>76,2; 92,75</t>
+          <t>48,64; 93,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,57; 91,05</t>
+          <t>61,26; 90,52</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>81,41%</t>
+          <t>81,53%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>87,6%</t>
+          <t>88,19%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>84,76%</t>
+          <t>85,12%</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>75,53; 86,3</t>
+          <t>75,87; 86,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>82,67; 91,37</t>
+          <t>83,77; 91,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>81,04; 88,1</t>
+          <t>81,47; 88,25</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>95,37%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,45%</t>
+          <t>96,34%</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>91,21; 97,61</t>
+          <t>90,94; 97,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>94,25; 98,91</t>
+          <t>94,27; 98,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>94,26; 97,87</t>
+          <t>94,02; 97,83</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>82,66%</t>
+          <t>81,35%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>92,37%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>88,11%</t>
+          <t>88,18%</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>78,65; 86,27</t>
+          <t>76,52; 85,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>89,75; 95,44</t>
+          <t>90,19; 97,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>85,65; 90,95</t>
+          <t>85,11; 92,42</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>57,42%</t>
+          <t>45,27%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>68,64%</t>
+          <t>69,66%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>63,06%</t>
+          <t>55,9%</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>44,75; 62,32</t>
+          <t>21,33; 62,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>65,16; 71,83</t>
+          <t>66,36; 72,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>56,31; 66,36</t>
+          <t>34,58; 66,67</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>78,78%</t>
+          <t>74,67%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>86,37%</t>
+          <t>86,3%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>82,8%</t>
+          <t>80,65%</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>74,67; 80,88</t>
+          <t>54,51; 80,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>84,75; 87,96</t>
+          <t>80,03; 88,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>80,85; 84,09</t>
+          <t>72,07; 84,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P38C-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P38C-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -591,7 +592,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,39 +640,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>64,03; 75,89</t>
+          <t>64,24; 75,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>93,08; 98,72</t>
+          <t>93,52; 98,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>70,06; 80,74</t>
+          <t>70,36; 80,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>96,14; 99,34</t>
+          <t>96,21; 99,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>69,23; 76,8</t>
+          <t>69,54; 76,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,85; 98,83</t>
+          <t>95,76; 98,82</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -719,39 +720,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,48; 90,47</t>
+          <t>84,27; 90,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>67,8; 80,0</t>
+          <t>67,74; 79,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>91,86; 95,92</t>
+          <t>91,81; 96,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>80,16; 87,8</t>
+          <t>80,41; 87,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>89,05; 92,79</t>
+          <t>89,31; 92,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>75,54; 82,41</t>
+          <t>75,42; 82,65</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>85,36; 92,2</t>
+          <t>86,06; 92,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>89,53; 96,47</t>
+          <t>89,71; 96,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89,19; 94,78</t>
+          <t>89,2; 95,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>95,07; 98,91</t>
+          <t>95,36; 98,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>88,68; 92,94</t>
+          <t>88,45; 92,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>93,44; 97,29</t>
+          <t>93,64; 97,14</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>89,41; 94,89</t>
+          <t>89,76; 95,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>77,48; 91,3</t>
+          <t>76,91; 91,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>88,47; 94,14</t>
+          <t>88,31; 94,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>48,64; 93,2</t>
+          <t>47,42; 93,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,04; 93,94</t>
+          <t>89,86; 93,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>61,26; 90,52</t>
+          <t>57,62; 90,67</t>
         </is>
       </c>
     </row>
@@ -959,39 +960,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>70,93; 82,76</t>
+          <t>71,04; 82,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>75,87; 86,32</t>
+          <t>74,69; 86,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>84,29; 92,27</t>
+          <t>84,19; 92,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>83,77; 91,67</t>
+          <t>83,89; 91,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>78,82; 86,24</t>
+          <t>79,35; 86,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>81,47; 88,25</t>
+          <t>81,52; 88,13</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1039,39 +1040,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>75,46; 85,03</t>
+          <t>75,52; 85,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>90,94; 97,5</t>
+          <t>91,32; 97,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>83,14; 91,02</t>
+          <t>83,12; 91,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>94,27; 98,91</t>
+          <t>94,48; 98,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>80,66; 87,14</t>
+          <t>80,86; 87,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>94,02; 97,83</t>
+          <t>93,94; 97,77</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1119,32 +1120,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>60,02; 67,91</t>
+          <t>59,96; 68,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>76,52; 85,29</t>
+          <t>76,0; 85,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>70,13; 76,73</t>
+          <t>70,25; 76,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>90,19; 97,01</t>
+          <t>90,13; 97,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>66,38; 71,5</t>
+          <t>66,14; 71,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>85,11; 92,42</t>
+          <t>84,95; 92,84</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1200,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>86,25; 91,1</t>
+          <t>87,03; 91,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>21,33; 62,33</t>
+          <t>20,05; 62,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>92,6; 95,81</t>
+          <t>92,37; 95,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>66,36; 72,85</t>
+          <t>66,16; 72,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>90,44; 93,13</t>
+          <t>90,45; 93,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>34,58; 66,67</t>
+          <t>34,96; 66,41</t>
         </is>
       </c>
     </row>
@@ -1279,32 +1280,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>79,87; 82,8</t>
+          <t>80,09; 82,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>54,51; 80,99</t>
+          <t>57,23; 80,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>86,21; 88,55</t>
+          <t>86,35; 88,57</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>80,03; 88,72</t>
+          <t>80,73; 88,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>83,63; 85,42</t>
+          <t>83,65; 85,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>72,07; 84,16</t>
+          <t>70,67; 84,5</t>
         </is>
       </c>
     </row>
@@ -1333,4 +1334,1190 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han medido los niveles de glucosal por prescripción médica</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>855</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>203804</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>301984</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>218853</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>284965</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>422657</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>586948</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>185615; 219118</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>291269; 307797</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>202523; 233056</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>278645; 287713</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>401071; 443845</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>575582; 593966</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>949</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>433451</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>383983</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>491390</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>434193</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>924840</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>818176</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>416648; 447533</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>350165; 412202</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>478436; 500350</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>413646; 448282</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>906929; 942635</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>777842; 852410</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>604</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>870</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>285090</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>296205</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>309613</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>340754</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>594702</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>636959</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>274161; 294992</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>283521; 304387</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>299156; 318647</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>332939; 345597</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>578396; 606451</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>622845; 646151</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>339356</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>268937</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>354009</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>371831</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>693364</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>640768</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>329373; 348914</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>240377; 285451</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>340936; 363771</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>224045; 440894</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>676659; 706374</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>452360; 711793</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>163266</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>145723</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>193520</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>183687</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>356786</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>329410</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>150042; 174612</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>133503; 154604</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>184022; 202028</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>174713; 191012</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>341036; 370866</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>315510; 341063</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>807</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>210344</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>257149</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>237280</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>249192</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>447624</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>506341</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>197228; 222393</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>246221; 263278</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>225549; 247238</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>241825; 253256</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>430616; 464253</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>493768; 513898</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>882</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>828</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1398</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>415337</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>507850</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>503126</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>789078</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>918462</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1296929</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>388511; 440668</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>474441; 535059</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>480648; 525837</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>762991; 821615</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>881092; 951641</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1249468; 1365518</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>706</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>804</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1366</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1326</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>685275</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>420425</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>776918</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>499939</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1462193</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>920365</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>669147; 702483</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>186164; 583943</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>760371; 787478</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>474865; 521270</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1440080; 1484149</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>575614; 1093435</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2616</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>2870</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>2884</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>4839</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>5500</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>7709</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>2735922</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>2582257</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>3084708</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>3153638</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>5820630</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>5735894</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>2689338; 2782281</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1979099; 2799393</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>3046246; 3124396</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>2949914; 3243177</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>5759974; 5875968</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>5026322; 6009920</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>